--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="4" r:id="rId1"/>
-    <sheet name="结构巡检明细表" sheetId="1" r:id="rId2"/>
-    <sheet name="病害类型及参数" sheetId="13" r:id="rId3"/>
+    <sheet name="权限表" sheetId="18" r:id="rId2"/>
+    <sheet name="结构巡检明细表" sheetId="1" r:id="rId3"/>
     <sheet name="单体名称枚举表" sheetId="12" r:id="rId4"/>
-    <sheet name="位置描述枚举表" sheetId="14" r:id="rId5"/>
-    <sheet name="病害位置信息表" sheetId="11" r:id="rId6"/>
-    <sheet name="设施信息" sheetId="2" r:id="rId7"/>
-    <sheet name="结构维护" sheetId="6" r:id="rId8"/>
-    <sheet name="环境活动" sheetId="8" r:id="rId9"/>
-    <sheet name="环境活动汇总表" sheetId="7" r:id="rId10"/>
+    <sheet name="病害类型枚举表" sheetId="13" r:id="rId5"/>
+    <sheet name="病害小类枚举表" sheetId="15" r:id="rId6"/>
+    <sheet name="病害类型与参数匹配表" sheetId="17" r:id="rId7"/>
+    <sheet name="位置描述枚举表" sheetId="14" r:id="rId8"/>
+    <sheet name="病害位置信息表" sheetId="11" r:id="rId9"/>
+    <sheet name="设施信息" sheetId="2" r:id="rId10"/>
+    <sheet name="结构维护" sheetId="6" r:id="rId11"/>
+    <sheet name="环境活动" sheetId="8" r:id="rId12"/>
+    <sheet name="环境活动汇总表" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="441">
   <si>
     <t>英文字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1489,103 +1492,202 @@
     <t>C</t>
   </si>
   <si>
-    <t>病害大类</t>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>裂缝</t>
   </si>
   <si>
-    <t>细微裂纹，径向裂缝，纵向裂缝，横向裂缝，竖向裂纹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度、（长度）、（深度）</t>
-  </si>
-  <si>
     <t>渗漏</t>
   </si>
   <si>
-    <t>湿渍;渗水;水珠;滴漏;线漏;漏泥沙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>缺损</t>
+  </si>
+  <si>
+    <t>错台</t>
+  </si>
+  <si>
+    <t>张开</t>
+  </si>
+  <si>
+    <t>腐蚀</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环缝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>片缝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注浆孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺栓孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺栓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>径向裂缝</t>
+  </si>
+  <si>
+    <t>纵向裂缝</t>
+  </si>
+  <si>
+    <t>横向裂缝</t>
+  </si>
+  <si>
+    <t>竖向裂纹</t>
+  </si>
+  <si>
+    <t>细微裂纹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗水</t>
+  </si>
+  <si>
+    <t>水珠</t>
+  </si>
+  <si>
+    <t>滴漏</t>
+  </si>
+  <si>
+    <t>线漏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏泥沙</t>
+  </si>
+  <si>
+    <t>湿渍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>止水带损坏</t>
+  </si>
+  <si>
+    <t>螺栓损坏</t>
+  </si>
+  <si>
+    <t>缺角</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>环内错台</t>
+  </si>
+  <si>
+    <t>环间错台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝张开</t>
+  </si>
+  <si>
+    <t>变形缝张开</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锈斑</t>
+  </si>
+  <si>
+    <t>泌出</t>
+  </si>
+  <si>
+    <t>起皮</t>
+  </si>
+  <si>
+    <t>起层</t>
+  </si>
+  <si>
+    <t>蜂窝</t>
+  </si>
+  <si>
+    <t>麻面</t>
+  </si>
+  <si>
+    <t>松花</t>
+  </si>
+  <si>
+    <t>凸起</t>
+  </si>
+  <si>
+    <t>剥落</t>
+  </si>
+  <si>
+    <t>凹陷</t>
+  </si>
+  <si>
+    <t>掉粉</t>
+  </si>
+  <si>
+    <t>起壳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面积</t>
-  </si>
-  <si>
-    <t>缺损</t>
-  </si>
-  <si>
-    <t>缺角，止水带损坏，螺栓损坏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积、深度</t>
-  </si>
-  <si>
-    <t>错台</t>
-  </si>
-  <si>
-    <t>环间错台，环内错台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>错台量</t>
-  </si>
-  <si>
-    <t>张开</t>
-  </si>
-  <si>
-    <t>变形缝张开，裂缝张开</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张开量</t>
-  </si>
-  <si>
-    <t>腐蚀</t>
-  </si>
-  <si>
-    <t>起壳;锈斑;泌出，起皮;起层;蜂窝;麻面;松花;凸起;剥落，;凹陷;掉粉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>环缝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>片缝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>裂缝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注浆孔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺栓孔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺栓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：其中黄色标注为该APP中会出现的权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1771,17 +1873,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1792,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1900,7 +1991,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,13 +2051,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2284,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2301,10 +2401,9 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
@@ -2322,7 +2421,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
@@ -2348,7 +2447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
         <v>107</v>
       </c>
@@ -2370,7 +2469,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="20" t="s">
         <v>108</v>
       </c>
@@ -2389,12 +2488,8 @@
         <v>31</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="J4" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
         <v>109</v>
       </c>
@@ -2413,14 +2508,8 @@
         <v>31</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="J5" s="21">
-        <v>1</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="20" t="s">
         <v>110</v>
       </c>
@@ -2442,69 +2531,21 @@
         <v>278</v>
       </c>
       <c r="I6" s="40"/>
-      <c r="J6" s="21">
-        <v>2</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="43" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="69" t="s">
         <v>290</v>
       </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="21">
-        <v>3</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="J8" s="21">
-        <v>4</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="J9" s="21">
-        <v>5</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="J10" s="21">
-        <v>6</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="J11" s="21">
-        <v>7</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="J12" s="21">
-        <v>8</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J4:K4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2512,1600 +2553,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="31">
-        <v>12011113001</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A7" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27.6" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="52"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:9" ht="41.4">
-      <c r="A13" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" ht="55.2">
-      <c r="A15" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="66.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>403</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B8" s="66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B10" s="66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="66">
-        <v>1</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="66">
-        <v>2</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="66">
-        <v>3</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="66">
-        <v>4</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="66">
-        <v>5</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="66">
-        <v>6</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>411</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="27.6">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -4474,7 +2921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -4808,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -5202,4 +3649,2180 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="31">
+        <v>12011113001</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="64"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="43">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="43">
+        <v>8</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.6" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" ht="41.4">
+      <c r="A13" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="55.2">
+      <c r="A15" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="66.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="63">
+        <v>7</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="63">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="63">
+        <v>9</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="63">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="63">
+        <v>11</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="63">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="63">
+        <v>13</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="63">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="63">
+        <v>15</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="63">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="63">
+        <v>17</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="63">
+        <v>18</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="63">
+        <v>19</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="63">
+        <v>20</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="63">
+        <v>21</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="63">
+        <v>22</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="63">
+        <v>23</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="63">
+        <v>24</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="63">
+        <v>25</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="63">
+        <v>26</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="63">
+        <v>27</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="63">
+        <v>28</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="63">
+        <v>29</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="43">
+        <v>30</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="43">
+        <v>7</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="43">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="43">
+        <v>9</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.6">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="4" r:id="rId1"/>
     <sheet name="权限表" sheetId="18" r:id="rId2"/>
     <sheet name="结构巡检明细表" sheetId="1" r:id="rId3"/>
     <sheet name="单体名称枚举表" sheetId="12" r:id="rId4"/>
-    <sheet name="病害类型枚举表" sheetId="13" r:id="rId5"/>
-    <sheet name="病害小类枚举表" sheetId="15" r:id="rId6"/>
-    <sheet name="病害类型与参数匹配表" sheetId="17" r:id="rId7"/>
-    <sheet name="位置描述枚举表" sheetId="14" r:id="rId8"/>
-    <sheet name="病害位置信息表" sheetId="11" r:id="rId9"/>
-    <sheet name="设施信息" sheetId="2" r:id="rId10"/>
-    <sheet name="结构维护" sheetId="6" r:id="rId11"/>
-    <sheet name="环境活动" sheetId="8" r:id="rId12"/>
-    <sheet name="环境活动汇总表" sheetId="7" r:id="rId13"/>
+    <sheet name="位置描述枚举表" sheetId="14" r:id="rId5"/>
+    <sheet name="模型名称枚举表" sheetId="19" r:id="rId6"/>
+    <sheet name="病害类型枚举表" sheetId="13" r:id="rId7"/>
+    <sheet name="病害小类枚举表" sheetId="15" r:id="rId8"/>
+    <sheet name="病害类型与参数匹配表" sheetId="17" r:id="rId9"/>
+    <sheet name="病害位置信息表" sheetId="11" r:id="rId10"/>
+    <sheet name="设施信息" sheetId="2" r:id="rId11"/>
+    <sheet name="结构维护" sheetId="6" r:id="rId12"/>
+    <sheet name="环境活动" sheetId="8" r:id="rId13"/>
+    <sheet name="环境活动汇总表" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="448">
   <si>
     <t>英文字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1688,6 +1689,34 @@
   </si>
   <si>
     <t>注：其中黄色标注为该APP中会出现的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急停靠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型车道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型车道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电缆通道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2054,9 +2083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2064,10 +2090,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2386,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2562,7 @@
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
         <v>290</v>
       </c>
       <c r="B7" s="20"/>
@@ -2553,6 +2582,219 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.6">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -2921,7 +3163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3255,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -3651,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -4096,10 +4338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="43">
@@ -4166,12 +4408,12 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4965,6 +5207,153 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,71 +5371,71 @@
       <c r="A1" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5054,7 +5443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -5072,10 +5461,10 @@
       <c r="A1" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5083,10 +5472,10 @@
       <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5094,10 +5483,10 @@
       <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5105,10 +5494,10 @@
       <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5116,10 +5505,10 @@
       <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5127,10 +5516,10 @@
       <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5138,10 +5527,10 @@
       <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5149,10 +5538,10 @@
       <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5160,10 +5549,10 @@
       <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5171,10 +5560,10 @@
       <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5182,10 +5571,10 @@
       <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5193,10 +5582,10 @@
       <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="66" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5204,10 +5593,10 @@
       <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5215,10 +5604,10 @@
       <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5226,10 +5615,10 @@
       <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5237,10 +5626,10 @@
       <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5248,10 +5637,10 @@
       <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>415</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="66" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5259,10 +5648,10 @@
       <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="66" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5270,10 +5659,10 @@
       <c r="A19" s="63">
         <v>18</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="66" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="66" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5281,10 +5670,10 @@
       <c r="A20" s="63">
         <v>19</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5295,7 +5684,7 @@
       <c r="B21" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5306,7 +5695,7 @@
       <c r="B22" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5317,7 +5706,7 @@
       <c r="B23" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5328,7 +5717,7 @@
       <c r="B24" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5339,7 +5728,7 @@
       <c r="B25" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5350,7 +5739,7 @@
       <c r="B26" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5361,7 +5750,7 @@
       <c r="B27" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5372,7 +5761,7 @@
       <c r="B28" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5383,7 +5772,7 @@
       <c r="B29" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5394,7 +5783,7 @@
       <c r="B30" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5405,7 +5794,7 @@
       <c r="B31" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="66" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5416,7 +5805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5430,7 +5819,7 @@
       <c r="A1" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>400</v>
       </c>
       <c r="C1" s="43" t="s">
@@ -5441,7 +5830,7 @@
       <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>384</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -5452,7 +5841,7 @@
       <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>384</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -5463,7 +5852,7 @@
       <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>384</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -5474,7 +5863,7 @@
       <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>385</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -5485,7 +5874,7 @@
       <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>386</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -5496,7 +5885,7 @@
       <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>386</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5507,7 +5896,7 @@
       <c r="A8" s="43">
         <v>7</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>387</v>
       </c>
       <c r="C8" s="43" t="s">
@@ -5518,7 +5907,7 @@
       <c r="A9" s="43">
         <v>8</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -5529,7 +5918,7 @@
       <c r="A10" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>389</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -5540,289 +5929,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="63">
-        <v>1</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="63">
-        <v>2</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="63">
-        <v>3</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="63">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="63">
-        <v>5</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="63">
-        <v>6</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>397</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="27.6">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="用户信息" sheetId="4" r:id="rId1"/>
-    <sheet name="权限表" sheetId="18" r:id="rId2"/>
-    <sheet name="结构巡检汇总表" sheetId="20" r:id="rId3"/>
-    <sheet name="结构巡检明细表" sheetId="21" r:id="rId4"/>
-    <sheet name="里程病害匹配表" sheetId="22" r:id="rId5"/>
-    <sheet name="单体名称枚举表" sheetId="12" r:id="rId6"/>
-    <sheet name="位置描述枚举表" sheetId="14" r:id="rId7"/>
-    <sheet name="模型名称枚举表" sheetId="19" r:id="rId8"/>
-    <sheet name="病害类型枚举表" sheetId="13" r:id="rId9"/>
-    <sheet name="病害小类枚举表" sheetId="15" r:id="rId10"/>
-    <sheet name="病害类型与参数匹配表" sheetId="17" r:id="rId11"/>
-    <sheet name="设施信息" sheetId="2" r:id="rId12"/>
-    <sheet name="结构维护" sheetId="6" r:id="rId13"/>
-    <sheet name="环境活动" sheetId="8" r:id="rId14"/>
-    <sheet name="环境活动汇总表" sheetId="7" r:id="rId15"/>
+    <sheet name="登陆用户表" sheetId="23" r:id="rId1"/>
+    <sheet name="用户角色表" sheetId="25" r:id="rId2"/>
+    <sheet name="角色表" sheetId="24" r:id="rId3"/>
+    <sheet name="角色枚举表" sheetId="18" r:id="rId4"/>
+    <sheet name="结构巡检汇总表" sheetId="20" r:id="rId5"/>
+    <sheet name="结构巡检明细表" sheetId="21" r:id="rId6"/>
+    <sheet name="里程病害匹配表" sheetId="22" r:id="rId7"/>
+    <sheet name="单体名称枚举表" sheetId="12" r:id="rId8"/>
+    <sheet name="位置描述枚举表" sheetId="14" r:id="rId9"/>
+    <sheet name="模型名称枚举表" sheetId="19" r:id="rId10"/>
+    <sheet name="病害类型枚举表" sheetId="13" r:id="rId11"/>
+    <sheet name="病害小类枚举表" sheetId="15" r:id="rId12"/>
+    <sheet name="病害类型与参数匹配表" sheetId="17" r:id="rId13"/>
+    <sheet name="设施信息" sheetId="2" r:id="rId14"/>
+    <sheet name="结构维护" sheetId="6" r:id="rId15"/>
+    <sheet name="环境活动" sheetId="8" r:id="rId16"/>
+    <sheet name="环境活动汇总表" sheetId="7" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="447">
   <si>
     <t>英文字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -404,63 +406,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>User_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>User_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authority</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -985,10 +931,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>权限表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资产数据采集</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1021,10 +963,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{3,6,7}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>维修人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1053,10 +991,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USER_INFO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">T_SURR_ACT </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1069,10 +1003,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>流水号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1584,6 +1514,214 @@
   </si>
   <si>
     <t>里程病害匹配表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否Admin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：否 1：是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名(中文名）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_LOGIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ADMIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：否 1：是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名(中文名）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ROLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：否 1：是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_LOGIN_ROLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1591,7 +1729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,21 +1810,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1720,6 +1843,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1741,7 +1872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1764,17 +1895,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1791,9 +1933,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1809,22 +1948,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1871,101 +1995,138 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2283,175 +2444,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="H2" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4">
+      <c r="A3" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
+      <c r="A4" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
+      <c r="A11" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
+      <c r="A12" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
+      <c r="A13" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
+      <c r="A14" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="39"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4">
+      <c r="A16" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4">
+      <c r="A17" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="66.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2466,344 +2943,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="44">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="44">
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="44">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="44">
+        <v>16</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="44">
+        <v>17</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="44">
+        <v>18</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C19" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="44">
+        <v>19</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="44">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="44">
         <v>21</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="52">
-        <v>1</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="B22" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="44">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="44">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="44">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="52">
-        <v>2</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="52">
-        <v>3</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="52">
-        <v>6</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="C25" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="44">
+        <v>25</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="44">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="44">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="44">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="44">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="52">
-        <v>7</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="52">
-        <v>8</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="52">
-        <v>9</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52">
-        <v>10</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52">
-        <v>11</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52">
-        <v>12</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52">
-        <v>13</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52">
-        <v>14</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="52">
-        <v>15</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="52">
-        <v>16</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="52">
-        <v>17</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="52">
-        <v>18</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="52">
-        <v>19</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="52">
-        <v>20</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="52">
-        <v>21</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="52">
-        <v>22</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="52">
-        <v>23</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="52">
-        <v>24</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="52">
-        <v>25</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="52">
-        <v>26</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="52">
-        <v>27</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="52">
-        <v>28</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="52">
-        <v>29</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="41">
-        <v>30</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>342</v>
+      <c r="C31" s="47" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2824,113 +3301,113 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>385</v>
+      <c r="A1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>386</v>
+      <c r="B2" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>387</v>
+      <c r="B3" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>388</v>
+      <c r="B4" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>389</v>
+      <c r="B5" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>390</v>
+      <c r="B6" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>388</v>
+      <c r="B7" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>391</v>
+      <c r="B8" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>392</v>
+      <c r="B9" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>390</v>
+      <c r="B10" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +3416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -2968,8 +3445,8 @@
       <c r="C1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>261</v>
+      <c r="D1" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3004,7 +3481,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>55</v>
@@ -3018,7 +3495,7 @@
       <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3028,12 +3505,12 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="4"/>
@@ -3055,7 +3532,7 @@
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="4"/>
@@ -3079,14 +3556,14 @@
       <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
@@ -3106,7 +3583,7 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>37893</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3118,17 +3595,17 @@
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3143,14 +3620,14 @@
       <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3163,14 +3640,14 @@
       <c r="B10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
         <v>75</v>
       </c>
@@ -3185,20 +3662,20 @@
       <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3308,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3329,236 +3806,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="H3" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="41.4">
+      <c r="A4" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="16">
+        <v>20090114001</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="22" t="s">
+      <c r="G5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="41.4">
-      <c r="A4" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="24" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="22">
-        <v>20090114001</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="B8" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="11">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10">
         <v>39876</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="22"/>
+      <c r="G9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="22"/>
+      <c r="A10" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -3596,7 +4073,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3642,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -3661,376 +4138,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="23">
+        <v>12011113001</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="C5" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
+      <c r="C6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="H6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="29" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="C7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="H7" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="29" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C8" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="29">
-        <v>12011113001</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="H14" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4038,7 +4515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -4058,410 +4535,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="23">
+        <v>12011113001</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="C7" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="29">
-        <v>12011113001</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="C18" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4471,10 +4948,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
+      <c r="A4" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4483,82 +5432,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="57"/>
+      <c r="A1" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>251</v>
+      <c r="B2" s="33" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>252</v>
+      <c r="B3" s="33" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>253</v>
+      <c r="B4" s="32" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>254</v>
+      <c r="B5" s="33" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>255</v>
+      <c r="B6" s="33" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>256</v>
+      <c r="B7" s="32" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>257</v>
+      <c r="B8" s="32" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="41">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>258</v>
+      <c r="B9" s="33" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4570,12 +5519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4591,350 +5540,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="44" t="s">
+      <c r="A4" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.6">
+      <c r="A9" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27.6">
+      <c r="A10" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="42" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="69">
+      <c r="A12" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="44" t="s">
+      <c r="B12" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="C12" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="44" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H12" s="42" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:9" ht="27.6">
-      <c r="A9" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6">
-      <c r="A10" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="69">
-      <c r="A12" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="68"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="68"/>
+      <c r="C16" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4947,34 +5896,34 @@
       <c r="H18" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="71"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="66"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="64"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4983,7 +5932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -5004,422 +5953,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="B3" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6">
-      <c r="A4" s="44" t="s">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="A5" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="82.8">
+      <c r="A7" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="C15" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="B16" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="44" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="96.6">
-      <c r="A7" s="44" t="s">
+      <c r="H17" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -5432,14 +6381,14 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5447,11 +6396,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5468,153 +6417,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="44" t="s">
+      <c r="A3" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="44" t="s">
+      <c r="A6" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>407</v>
+      <c r="H6" s="13" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="44" t="s">
+      <c r="A7" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>408</v>
+      <c r="H7" s="13" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5624,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5638,107 +6587,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>321</v>
+      <c r="A1" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="52">
+      <c r="A2" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="A3" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="52">
+      <c r="A5" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="B6" s="52">
+      <c r="A6" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="52">
+      <c r="A7" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="52">
+      <c r="A8" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="44">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="A9" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="A10" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="44">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>332</v>
+      <c r="A11" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>334</v>
+      <c r="A12" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>336</v>
+      <c r="A13" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5747,7 +6696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5758,226 +6707,60 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>344</v>
+      <c r="A1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>345</v>
+      <c r="B2" s="44" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="52">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>346</v>
+      <c r="B3" s="44" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>347</v>
+      <c r="B4" s="44" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>348</v>
+      <c r="B5" s="44" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>349</v>
+      <c r="B6" s="44" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="52">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="52">
-        <v>2</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="52">
-        <v>3</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="52">
-        <v>5</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="52">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="66.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="41">
-        <v>2</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="41">
-        <v>3</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="41">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="41">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="41">
-        <v>6</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="44" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
